--- a/data/trans_dic/P33B_R1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33B_R1-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2074652018951384</v>
+        <v>0.2075724423440157</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3512960400213854</v>
+        <v>0.3492008125062988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2986653068539749</v>
+        <v>0.2980956389296832</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2769560664275944</v>
+        <v>0.271307364596306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4026778333272599</v>
+        <v>0.4002898761154209</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3441064339943137</v>
+        <v>0.3393990690709099</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09371091102814937</v>
+        <v>0.09481548137405928</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1625205623648797</v>
+        <v>0.1609590474062351</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1311522834410252</v>
+        <v>0.1318325111954915</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1220352527191619</v>
+        <v>0.1215058622411426</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1909075542644385</v>
+        <v>0.1915499141375083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1517866224110435</v>
+        <v>0.1514703406506148</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08090309841478942</v>
+        <v>0.08126421776931976</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1172995143472514</v>
+        <v>0.112618810076252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1053000983989041</v>
+        <v>0.103330779567831</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1282026179814496</v>
+        <v>0.1286521955696331</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1605277941490831</v>
+        <v>0.1621227641587427</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1379498937256575</v>
+        <v>0.138002041195787</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.212857677596818</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1714829302574993</v>
+        <v>0.1714829302574994</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1167930051116539</v>
+        <v>0.1159716641907587</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2023250780264527</v>
+        <v>0.2004219601263682</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1637875610948214</v>
+        <v>0.1636238599901354</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1398459751510845</v>
+        <v>0.1393484185980807</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2243610955156026</v>
+        <v>0.2243902717486498</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1801643965366977</v>
+        <v>0.1800911219256544</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>120025</v>
+        <v>120087</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>288525</v>
+        <v>286804</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>418085</v>
+        <v>417288</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>160227</v>
+        <v>156959</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>330725</v>
+        <v>328764</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>481696</v>
+        <v>475106</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>208927</v>
+        <v>211390</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>352804</v>
+        <v>349414</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>577110</v>
+        <v>580104</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>272076</v>
+        <v>270895</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>414427</v>
+        <v>415821</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>667908</v>
+        <v>666516</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>57570</v>
+        <v>57827</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>86201</v>
+        <v>82761</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>152313</v>
+        <v>149464</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>91227</v>
+        <v>91547</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>117968</v>
+        <v>119140</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>199540</v>
+        <v>199615</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>411065</v>
+        <v>408174</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>754069</v>
+        <v>746976</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1186906</v>
+        <v>1185719</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>492202</v>
+        <v>490451</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>836197</v>
+        <v>836306</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1305582</v>
+        <v>1305051</v>
       </c>
     </row>
     <row r="20">
